--- a/accuracy.xlsx
+++ b/accuracy.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MatlabWorkplace\1.各类精度\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93B5DFD9-ECDD-4CC5-90E9-279AE4C4A580}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="0" windowWidth="4065" windowHeight="1125" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="4065" windowHeight="1125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -255,11 +261,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,11 +527,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -567,7 +581,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,9 +613,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,6 +665,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -808,14 +858,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
@@ -825,7 +875,7 @@
     <col min="7" max="7" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -840,7 +890,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" thickBot="1">
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -853,7 +903,7 @@
       </c>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
@@ -877,7 +927,7 @@
         <v>0.95140000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
@@ -901,7 +951,7 @@
         <v>0.96109999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
@@ -925,7 +975,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>18</v>
       </c>
@@ -951,7 +1001,7 @@
         <v>0.95416666666666661</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
@@ -973,7 +1023,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -997,7 +1047,7 @@
         <v>0.95689999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1069,7 @@
         <v>0.94440000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1091,7 @@
         <v>0.94440000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1065,7 +1115,7 @@
         <v>0.94856666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -1083,14 +1133,14 @@
         <v>0.93066666666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>3</v>
       </c>
@@ -1099,7 +1149,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>2</v>
       </c>
@@ -1117,11 +1167,11 @@
         <v>0.73703333333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1180,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1">
+    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1198,7 @@
         <v>0.88636666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
@@ -1157,7 +1207,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1">
+    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
@@ -1175,41 +1225,41 @@
         <v>0.92146666666666677</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E21" s="8"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="20"/>
       <c r="B24" s="13">
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="13">
         <v>0.92930000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="13">
         <v>0.93159999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="5">
         <f>AVERAGE(B24:B26)</f>
         <v>0.92963333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
         <v>20</v>
       </c>
@@ -1218,7 +1268,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
         <v>21</v>
       </c>
@@ -1236,12 +1286,12 @@
         <v>0.95393333333333319</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="19" t="s">
         <v>23</v>
       </c>
@@ -1249,7 +1299,7 @@
         <v>0.89510000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="19" t="s">
         <v>22</v>
       </c>
@@ -1257,7 +1307,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1315,7 @@
         <v>0.93069999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
         <v>26</v>
       </c>
@@ -1279,7 +1329,7 @@
       </c>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="13">
         <v>13.2</v>
       </c>
@@ -1299,7 +1349,7 @@
         <v>0.92269999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="13">
         <v>11</v>
       </c>
@@ -1319,7 +1369,7 @@
         <v>0.90839999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="13">
         <v>11.8</v>
       </c>
@@ -1339,7 +1389,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <f t="shared" ref="A41:F41" si="1">AVERAGE(A38:A40)</f>
         <v>12</v>
@@ -1365,7 +1415,7 @@
         <v>0.91669999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
         <v>35</v>
       </c>
@@ -1379,7 +1429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="13">
         <v>38.4</v>
       </c>
@@ -1393,7 +1443,7 @@
         <v>0.91910000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="13">
         <v>38</v>
       </c>
@@ -1407,7 +1457,7 @@
         <v>0.92090000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="13">
         <v>38.799999999999997</v>
       </c>
@@ -1421,7 +1471,7 @@
         <v>0.91820000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <f>AVERAGE(A43:A45)</f>
         <v>38.4</v>
@@ -1440,7 +1490,7 @@
       </c>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
         <v>35</v>
       </c>
@@ -1454,7 +1504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="13">
         <v>35.6</v>
       </c>
@@ -1468,7 +1518,7 @@
         <v>0.93379999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="13">
         <v>34.799999999999997</v>
       </c>
@@ -1482,7 +1532,7 @@
         <v>0.92490000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="13">
         <v>36.4</v>
       </c>
@@ -1496,7 +1546,7 @@
         <v>0.93110000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <f>AVERAGE(A48:A50)</f>
         <v>35.6</v>
@@ -1514,7 +1564,7 @@
         <v>0.92993333333333339</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="13" t="s">
         <v>35</v>
       </c>
@@ -1522,7 +1572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="13">
         <v>18</v>
       </c>
@@ -1530,7 +1580,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="13">
         <v>17.600000000000001</v>
       </c>
@@ -1538,7 +1588,7 @@
         <v>0.92579999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="13">
         <v>16.399999999999999</v>
       </c>
@@ -1546,7 +1596,7 @@
         <v>0.93289999999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <f>AVERAGE(A53:A55)</f>
         <v>17.333333333333332</v>
@@ -1556,7 +1606,7 @@
         <v>0.93023333333333336</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -1569,20 +1619,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.875" style="23" customWidth="1"/>
     <col min="9" max="10" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>43</v>
       </c>
@@ -1601,7 +1651,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="29" customFormat="1">
+    <row r="2" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
         <v>36</v>
       </c>
@@ -1635,7 +1685,7 @@
         <v>5.8791803769540673E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
         <v>42</v>
       </c>
@@ -1672,7 +1722,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="29" customFormat="1">
+    <row r="4" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
         <v>37</v>
       </c>
@@ -1706,7 +1756,7 @@
         <v>4.6564343603642698E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>39</v>
       </c>
@@ -1740,7 +1790,7 @@
         <v>7.8712254748666988E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
         <v>38</v>
       </c>
@@ -1774,7 +1824,7 @@
         <v>8.4536833335985585E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="29" customFormat="1">
+    <row r="7" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28" t="s">
         <v>40</v>
       </c>
@@ -1808,7 +1858,7 @@
         <v>8.1496129034568654E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
         <v>44</v>
       </c>
@@ -1842,7 +1892,7 @@
         <v>5.9410597098657819E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
         <v>41</v>
       </c>
@@ -1876,15 +1926,15 @@
         <v>3.0186720511477991E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>47</v>
       </c>
@@ -1896,7 +1946,7 @@
         <v>2.86902750073958E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
         <v>48</v>
       </c>
@@ -1924,7 +1974,7 @@
         <v>1.3142183988972312E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
         <v>49</v>
       </c>
@@ -1952,7 +2002,7 @@
         <v>1.3238088985952603E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
         <v>50</v>
       </c>
@@ -1980,7 +2030,7 @@
         <v>8.3566141468898788E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
         <v>51</v>
       </c>
@@ -2008,7 +2058,7 @@
         <v>1.0957508840972938E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
         <v>52</v>
       </c>
@@ -2036,7 +2086,7 @@
         <v>9.99659942180341E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
         <v>45</v>
       </c>
@@ -2069,7 +2119,7 @@
         <v>2.7482867390430472E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G21" t="s">
         <v>56</v>
       </c>
@@ -2078,7 +2128,7 @@
         <v>1.2770633500339789E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
         <v>48</v>
       </c>
@@ -2098,7 +2148,7 @@
         <v>0.94</v>
       </c>
       <c r="H22">
-        <f t="shared" ref="H20:H35" si="4">AVERAGE(B22:F22)</f>
+        <f t="shared" ref="H22:H35" si="4">AVERAGE(B22:F22)</f>
         <v>0.95245999999999997</v>
       </c>
       <c r="I22" s="23">
@@ -2106,7 +2156,7 @@
         <v>8.110980212033575E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
         <v>49</v>
       </c>
@@ -2134,7 +2184,7 @@
         <v>1.3312888491984004E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
         <v>50</v>
       </c>
@@ -2162,7 +2212,7 @@
         <v>3.985849972088778E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="23" t="s">
         <v>51</v>
       </c>
@@ -2190,7 +2240,7 @@
         <v>5.9554177015554753E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="23" t="s">
         <v>52</v>
       </c>
@@ -2218,7 +2268,7 @@
         <v>9.2310887765203482E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="23" t="s">
         <v>45</v>
       </c>
@@ -2250,7 +2300,7 @@
         <v>1.6278452014857115E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="G29" t="s">
         <v>55</v>
       </c>
@@ -2259,7 +2309,7 @@
         <v>3.0054472545696032E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="23" t="s">
         <v>48</v>
       </c>
@@ -2287,7 +2337,7 @@
         <v>1.5843231993504351E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
         <v>49</v>
       </c>
@@ -2315,7 +2365,7 @@
         <v>1.5486381113739891E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
         <v>50</v>
       </c>
@@ -2343,7 +2393,7 @@
         <v>4.5916228068080605E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="23" t="s">
         <v>51</v>
       </c>
@@ -2371,7 +2421,7 @@
         <v>1.5486381113739889E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
         <v>52</v>
       </c>
@@ -2399,7 +2449,7 @@
         <v>1.4292585490386258E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="23" t="s">
         <v>45</v>
       </c>
@@ -2432,7 +2482,7 @@
         <v>4.7962610437714643E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
         <v>58</v>
       </c>
@@ -2445,12 +2495,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
